--- a/Excels/CreateTransferCheck02.xlsx
+++ b/Excels/CreateTransferCheck02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -90,76 +90,25 @@
     <t>f</t>
   </si>
   <si>
-    <t>BPl8vA9Cn</t>
-  </si>
-  <si>
-    <t>clesaunier0@addthis.com</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>0457 Lake View Plaza</t>
-  </si>
-  <si>
-    <t>04/25/1956</t>
-  </si>
-  <si>
-    <t>Cassi</t>
-  </si>
-  <si>
-    <t>Maridel</t>
-  </si>
-  <si>
-    <t>10/23/1973</t>
-  </si>
-  <si>
-    <t>626 Dottie Lane</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>mslark4@aboutads.info</t>
-  </si>
-  <si>
-    <t>oxaFq9</t>
-  </si>
-  <si>
-    <t>Kaitlynn</t>
-  </si>
-  <si>
-    <t>12/06/1975</t>
-  </si>
-  <si>
-    <t>11708 Moland Center</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>krobken5@ibm.com</t>
-  </si>
-  <si>
-    <t>FgoEnzYyEWt</t>
-  </si>
-  <si>
-    <t>Withdrawal</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>ghil</t>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>10/01/1984</t>
+  </si>
+  <si>
+    <t>0 Moulton Court</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>cbarnardod@state.tx.us</t>
+  </si>
+  <si>
+    <t>e7enXPEjjhj</t>
   </si>
 </sst>
 </file>
@@ -480,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="V8 C7"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +443,7 @@
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
@@ -569,34 +518,34 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>178334</v>
+        <v>299893</v>
       </c>
       <c r="H2">
-        <v>7651557852</v>
+        <v>9798842872</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
@@ -625,126 +574,6 @@
       </c>
       <c r="V2">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3">
-        <v>923154</v>
-      </c>
-      <c r="H3">
-        <v>5028348657</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1">
-        <v>800</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3">
-        <v>200</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3">
-        <v>10042020</v>
-      </c>
-      <c r="T3" s="2">
-        <v>10082020</v>
-      </c>
-      <c r="U3">
-        <v>100</v>
-      </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4">
-        <v>439882</v>
-      </c>
-      <c r="H4">
-        <v>3212863357</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4">
-        <v>1200</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4">
-        <v>10042020</v>
-      </c>
-      <c r="T4" s="2">
-        <v>10082020</v>
-      </c>
-      <c r="U4">
-        <v>100</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/CreateTransferCheck02.xlsx
+++ b/Excels/CreateTransferCheck02.xlsx
@@ -87,28 +87,28 @@
     <t>Deposit</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>10/01/1984</t>
-  </si>
-  <si>
-    <t>0 Moulton Court</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>cbarnardod@state.tx.us</t>
-  </si>
-  <si>
-    <t>e7enXPEjjhj</t>
+    <t>Aimil</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>11/04/1963</t>
+  </si>
+  <si>
+    <t>620 Mesta Way</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>amcphatere@github.io</t>
+  </si>
+  <si>
+    <t>4khIDBFT5L</t>
   </si>
 </sst>
 </file>
@@ -518,10 +518,10 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -536,10 +536,10 @@
         <v>27</v>
       </c>
       <c r="G2">
-        <v>299893</v>
+        <v>863266</v>
       </c>
       <c r="H2">
-        <v>9798842872</v>
+        <v>4806825343</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>

--- a/Excels/CreateTransferCheck02.xlsx
+++ b/Excels/CreateTransferCheck02.xlsx
@@ -87,28 +87,28 @@
     <t>Deposit</t>
   </si>
   <si>
-    <t>Aimil</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>11/04/1963</t>
-  </si>
-  <si>
-    <t>620 Mesta Way</t>
-  </si>
-  <si>
-    <t>Scottsdale</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>amcphatere@github.io</t>
-  </si>
-  <si>
-    <t>4khIDBFT5L</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>rybHgeD</t>
+  </si>
+  <si>
+    <t>kcroisdallr@jugem.jp</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>9 Anhalt Road</t>
+  </si>
+  <si>
+    <t>05/24/1962</t>
+  </si>
+  <si>
+    <t>Karlie</t>
   </si>
 </sst>
 </file>
@@ -518,34 +518,34 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>863266</v>
+        <v>492665</v>
       </c>
       <c r="H2">
-        <v>4806825343</v>
+        <v>6125467690</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
@@ -567,7 +567,7 @@
         <v>10042020</v>
       </c>
       <c r="T2" s="2">
-        <v>10082020</v>
+        <v>10152020</v>
       </c>
       <c r="U2">
         <v>100</v>
